--- a/medicine/Sexualité et sexologie/Sillon_vestibulaire/Sillon_vestibulaire.xlsx
+++ b/medicine/Sexualité et sexologie/Sillon_vestibulaire/Sillon_vestibulaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le sillon vestibulaire est un sillon, c'est-à-dire une rainure, qui sépare les petites lèvres du vestibule vulvaire. Au nombre de deux, ils constituent les extrémités de ce dernier. L'orifice des glandes vestibulaires majeures s'ouvrent dans ce sillon[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le sillon vestibulaire est un sillon, c'est-à-dire une rainure, qui sépare les petites lèvres du vestibule vulvaire. Au nombre de deux, ils constituent les extrémités de ce dernier. L'orifice des glandes vestibulaires majeures s'ouvrent dans ce sillon.
 </t>
         </is>
       </c>
